--- a/2020/March/Reqisition of Tulip-2/March'2020/16.03.2020 Requisition of Tulip-2.xlsx
+++ b/2020/March/Reqisition of Tulip-2/March'2020/16.03.2020 Requisition of Tulip-2.xlsx
@@ -441,10 +441,10 @@
     <t>Dealer Name:  Tulip-2</t>
   </si>
   <si>
-    <t>16.03.2020</t>
+    <t>Light Blue</t>
   </si>
   <si>
-    <t>Light Blue</t>
+    <t>19.03.2020</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1081,10 @@
   <dimension ref="A1:BV427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="13" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="13" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1663,37 +1663,29 @@
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
     </row>
-    <row r="12" spans="1:74" ht="15">
+    <row r="12" spans="1:74" ht="15" hidden="1">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="9">
-        <v>779.96</v>
-      </c>
-      <c r="C12" s="8">
-        <v>10</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="10">
         <f>C12*B12</f>
-        <v>7799.6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="13" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9">
-        <v>896.23500000000001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>20</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>17924.7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>119</v>
@@ -1858,22 +1850,18 @@
       <c r="AF17" s="26"/>
       <c r="AG17" s="26"/>
     </row>
-    <row r="18" spans="1:74" ht="15">
+    <row r="18" spans="1:74" ht="15" hidden="1">
       <c r="A18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="9">
-        <v>798.99</v>
-      </c>
-      <c r="C18" s="8">
-        <v>50</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="10">
         <f>C18*B18</f>
-        <v>39949.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -2084,14 +2072,14 @@
         <v>68</v>
       </c>
       <c r="B24" s="9">
-        <v>1140.845</v>
+        <v>1140.8499999999999</v>
       </c>
       <c r="C24" s="8">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D24" s="12">
         <f>C24*B24</f>
-        <v>59323.94</v>
+        <v>22817</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>119</v>
@@ -2113,17 +2101,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="26" spans="1:74" s="5" customFormat="1" ht="15">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="9">
         <v>878.19</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8">
+        <v>30</v>
+      </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26345.7</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>80</v>
@@ -2430,19 +2420,15 @@
       <c r="BU32" s="26"/>
       <c r="BV32" s="26"/>
     </row>
-    <row r="33" spans="1:74" ht="15">
+    <row r="33" spans="1:74" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="9">
-        <v>2252.42</v>
-      </c>
-      <c r="C33" s="8">
-        <v>5</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="10">
         <f>C33*B33</f>
-        <v>11262.1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>90</v>
@@ -3185,19 +3171,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15">
+    <row r="59" spans="1:33" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="9">
-        <v>945.36</v>
-      </c>
-      <c r="C59" s="8">
-        <v>54</v>
-      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="10">
         <f>B59*C59</f>
-        <v>51049.440000000002</v>
+        <v>0</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>116</v>
@@ -3943,19 +3925,15 @@
       <c r="BB89" s="32"/>
       <c r="BC89" s="32"/>
     </row>
-    <row r="90" spans="1:74" ht="14.25" customHeight="1">
+    <row r="90" spans="1:74" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="9">
-        <v>3520.36</v>
-      </c>
-      <c r="C90" s="8">
-        <v>7</v>
-      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="10">
         <f t="shared" si="2"/>
-        <v>24642.52</v>
+        <v>0</v>
       </c>
       <c r="E90" s="37" t="s">
         <v>90</v>
@@ -4335,19 +4313,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:55" ht="15">
+    <row r="97" spans="1:55" ht="15" hidden="1">
       <c r="A97" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="9">
-        <v>8101.24</v>
-      </c>
-      <c r="C97" s="8">
-        <v>2</v>
-      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="10">
         <f>B97*C97</f>
-        <v>16202.48</v>
+        <v>0</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>90</v>
@@ -4360,11 +4334,11 @@
       <c r="B98" s="45"/>
       <c r="C98" s="16">
         <f>SUBTOTAL(9,C12:C97)</f>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17">
         <f>SUBTOTAL(9,D12:D97)</f>
-        <v>228154.28</v>
+        <v>49162.7</v>
       </c>
       <c r="E98" s="31"/>
       <c r="F98" s="33"/>
